--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -39985,7 +39985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40048,7 +40048,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.80407</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.15308</v>
       </c>
     </row>
     <row r="4" ht="14.75" customHeight="1" s="49">
@@ -40093,9 +40096,12 @@
         <v>0.00666</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.25987</v>
+        <v>0.00734</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>1.3878</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40109,10 +40115,13 @@
         <v>0.11228</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>21.22686</v>
+        <v>0.1415</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>42.01675</v>
+        <v>26.75275</v>
+      </c>
+      <c r="E7" t="n">
+        <v>51.91691</v>
       </c>
     </row>
     <row r="8" ht="14.75" customHeight="1" s="49">
@@ -40177,6 +40186,9 @@
       </c>
       <c r="D11" s="4" t="n">
         <v>0.04348</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02929</v>
       </c>
     </row>
     <row r="12" ht="14.75" customHeight="1" s="49">
